--- a/doc/ue_slate_font.xlsx
+++ b/doc/ue_slate_font.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49CDFC0-175E-4043-83B1-1F81213317A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177FE0C2-1F49-491A-A239-18534EBCCB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="描述" sheetId="1" r:id="rId1"/>
     <sheet name="渲染" sheetId="2" r:id="rId2"/>
     <sheet name="跨平台" sheetId="3" r:id="rId3"/>
+    <sheet name="耗时" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
   <si>
     <t>Slate字体的加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +203,109 @@
   </si>
   <si>
     <t>return FLegacySlateFontInfoCache::Get().GetDefaultFont();</t>
+  </si>
+  <si>
+    <t>对于FreeType字体，加载描边信息比较耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FSlateFontRenderer::GetRenderData(const FShapedGlyphEntry&amp; InShapedGlyph, const FFontOutlineSettings&amp; InOutlineSettings, FCharacterRenderData&amp; OutRenderData) const</t>
+  </si>
+  <si>
+    <t>FT_Error Error = FreeTypeUtils::LoadGlyph(FaceGlyphData.FaceAndMemory-&gt;GetFace(), FaceGlyphData.GlyphIndex, FaceGlyphData.GlyphFlags, InShapedGlyph.FontFaceData-&gt;FontSize, InShapedGlyph.FontFaceData-&gt;FontScale);</t>
+  </si>
+  <si>
+    <t>if (Error == 0)</t>
+  </si>
+  <si>
+    <t>return GetRenderDataInternal(FaceGlyphData, InShapedGlyph.FontFaceData-&gt;FontScale, InOutlineSettings, OutRenderData);</t>
+  </si>
+  <si>
+    <t>bool FSlateFontRenderer::GetRenderDataInternal(const FFreeTypeFaceGlyphData&amp; InFaceGlyphData, const float InScale, const FFontOutlineSettings&amp; InOutlineSettings, FCharacterRenderData&amp; OutRenderData) const</t>
+  </si>
+  <si>
+    <t>这部分比较耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// If there is an outline, render it second after applying a border stroke to the font to produce an outline</t>
+  </si>
+  <si>
+    <t>if(ScaledOutlineSize &gt; 0)</t>
+  </si>
+  <si>
+    <t>FT_Stroker Stroker = nullptr;</t>
+  </si>
+  <si>
+    <t>FT_Stroker_New(FTLibrary-&gt;GetLibrary(), &amp;Stroker);</t>
+  </si>
+  <si>
+    <t>FT_Stroker_Set(Stroker, FMath::TruncToInt(FreeTypeUtils::ConvertPixelTo26Dot6&lt;float&gt;(ScaledOutlineSize)), FT_STROKER_LINECAP_ROUND, FT_STROKER_LINEJOIN_ROUND, 0);</t>
+  </si>
+  <si>
+    <t>FT_Glyph Glyph = nullptr;</t>
+  </si>
+  <si>
+    <t>FT_Get_Glyph(Slot, &amp;Glyph);</t>
+  </si>
+  <si>
+    <t>FT_Bool bInner = false;</t>
+  </si>
+  <si>
+    <t>FT_Bool bDestroy = true; // FT_Glyph_StrokeBorder may reassign Glyph, so have it destroy the original if that happens to avoid leaking the glyph made via FT_Get_Glyph above</t>
+  </si>
+  <si>
+    <t>FT_Glyph_StrokeBorder(&amp;Glyph, Stroker, bInner, bDestroy);</t>
+  </si>
+  <si>
+    <t>FT_Outline* Outline = &amp;reinterpret_cast&lt;FT_OutlineGlyph&gt;(Glyph)-&gt;outline;</t>
+  </si>
+  <si>
+    <t>RenderOutlineRows(FTLibrary-&gt;GetLibrary(), Outline, OutlineSpans);</t>
+  </si>
+  <si>
+    <t>FT_Stroker_Done(Stroker);</t>
+  </si>
+  <si>
+    <t>FT_Done_Glyph(Glyph);</t>
+  </si>
+  <si>
+    <t>插入耗时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FSlateFontCache::AddNewEntry( const FCharacterRenderData InRenderData, uint8&amp; OutTextureIndex, uint16&amp; OutGlyphX, uint16&amp; OutGlyphY, uint16&amp; OutGlyphWidth, uint16&amp; OutGlyphHeight )</t>
+  </si>
+  <si>
+    <t>for (const uint8 FontAtlasIndex : FontAtlasIndices)</t>
+  </si>
+  <si>
+    <t>FSlateFontAtlas&amp; FontAtlas = static_cast&lt;FSlateFontAtlas&amp;&gt;(AllFontTextures[FontAtlasIndex].Get());</t>
+  </si>
+  <si>
+    <t>checkSlow(FontAtlas.IsGrayscale() == InRenderData.bIsGrayscale);</t>
+  </si>
+  <si>
+    <t>// Add the character to the texture</t>
+  </si>
+  <si>
+    <t>const FAtlasedTextureSlot* NewSlot = FontAtlas.AddCharacter(InRenderData);</t>
+  </si>
+  <si>
+    <t>if( NewSlot )</t>
+  </si>
+  <si>
+    <t>OutTextureIndex = FontAtlasIndex;</t>
+  </si>
+  <si>
+    <t>FillOutputParamsFromAtlasedTextureSlot(*NewSlot);</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>找一个合适的Texture，插入其中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -983,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DC4470-7A0B-431F-8932-003277D29CA9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -991,4 +1095,226 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532E23D4-F1AA-4688-8AAE-D11B654AD98D}">
+  <dimension ref="B2:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>